--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.273542799517664</v>
+        <v>0.520183</v>
       </c>
       <c r="H2">
-        <v>0.273542799517664</v>
+        <v>1.560549</v>
       </c>
       <c r="I2">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="J2">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N2">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O2">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P2">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q2">
-        <v>16.2717904139263</v>
+        <v>31.87345212387666</v>
       </c>
       <c r="R2">
-        <v>16.2717904139263</v>
+        <v>286.86106911489</v>
       </c>
       <c r="S2">
-        <v>0.007302841219433242</v>
+        <v>0.01270621230233106</v>
       </c>
       <c r="T2">
-        <v>0.007302841219433242</v>
+        <v>0.01270621230233106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.273542799517664</v>
+        <v>0.520183</v>
       </c>
       <c r="H3">
-        <v>0.273542799517664</v>
+        <v>1.560549</v>
       </c>
       <c r="I3">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="J3">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N3">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O3">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P3">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q3">
-        <v>24.43459850957418</v>
+        <v>46.643300559117</v>
       </c>
       <c r="R3">
-        <v>24.43459850957418</v>
+        <v>419.789705032053</v>
       </c>
       <c r="S3">
-        <v>0.01096634043561056</v>
+        <v>0.01859414779052475</v>
       </c>
       <c r="T3">
-        <v>0.01096634043561056</v>
+        <v>0.01859414779052475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.273542799517664</v>
+        <v>0.520183</v>
       </c>
       <c r="H4">
-        <v>0.273542799517664</v>
+        <v>1.560549</v>
       </c>
       <c r="I4">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="J4">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.6493694562967</v>
+        <v>25.40615466666667</v>
       </c>
       <c r="N4">
-        <v>24.6493694562967</v>
+        <v>76.218464</v>
       </c>
       <c r="O4">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654054</v>
       </c>
       <c r="P4">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654053</v>
       </c>
       <c r="Q4">
-        <v>6.742657527420599</v>
+        <v>13.21584975297067</v>
       </c>
       <c r="R4">
-        <v>6.742657527420599</v>
+        <v>118.942647776736</v>
       </c>
       <c r="S4">
-        <v>0.003026130257775823</v>
+        <v>0.005268440709350148</v>
       </c>
       <c r="T4">
-        <v>0.003026130257775823</v>
+        <v>0.005268440709350147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.8785617969489</v>
+        <v>12.984906</v>
       </c>
       <c r="H5">
-        <v>11.8785617969489</v>
+        <v>38.954718</v>
       </c>
       <c r="I5">
-        <v>0.924746251730144</v>
+        <v>0.912837291778795</v>
       </c>
       <c r="J5">
-        <v>0.924746251730144</v>
+        <v>0.9128372917787949</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N5">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O5">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P5">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q5">
-        <v>706.6004600363933</v>
+        <v>795.63111390422</v>
       </c>
       <c r="R5">
-        <v>706.6004600363933</v>
+        <v>7160.680025137979</v>
       </c>
       <c r="S5">
-        <v>0.3171249649828261</v>
+        <v>0.3171748641570609</v>
       </c>
       <c r="T5">
-        <v>0.3171249649828261</v>
+        <v>0.3171748641570608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.8785617969489</v>
+        <v>12.984906</v>
       </c>
       <c r="H6">
-        <v>11.8785617969489</v>
+        <v>38.954718</v>
       </c>
       <c r="I6">
-        <v>0.924746251730144</v>
+        <v>0.912837291778795</v>
       </c>
       <c r="J6">
-        <v>0.924746251730144</v>
+        <v>0.9128372917787949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N6">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O6">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P6">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q6">
-        <v>1061.069378873815</v>
+        <v>1164.318851807694</v>
       </c>
       <c r="R6">
-        <v>1061.069378873815</v>
+        <v>10478.86966626925</v>
       </c>
       <c r="S6">
-        <v>0.4762119594464697</v>
+        <v>0.4641506185516858</v>
       </c>
       <c r="T6">
-        <v>0.4762119594464697</v>
+        <v>0.4641506185516857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.8785617969489</v>
+        <v>12.984906</v>
       </c>
       <c r="H7">
-        <v>11.8785617969489</v>
+        <v>38.954718</v>
       </c>
       <c r="I7">
-        <v>0.924746251730144</v>
+        <v>0.912837291778795</v>
       </c>
       <c r="J7">
-        <v>0.924746251730144</v>
+        <v>0.9128372917787949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.6493694562967</v>
+        <v>25.40615466666667</v>
       </c>
       <c r="N7">
-        <v>24.6493694562967</v>
+        <v>76.218464</v>
       </c>
       <c r="O7">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654054</v>
       </c>
       <c r="P7">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654053</v>
       </c>
       <c r="Q7">
-        <v>292.7990583424451</v>
+        <v>329.896530168128</v>
       </c>
       <c r="R7">
-        <v>292.7990583424451</v>
+        <v>2969.068771513152</v>
       </c>
       <c r="S7">
-        <v>0.1314093273008482</v>
+        <v>0.1315118090700484</v>
       </c>
       <c r="T7">
-        <v>0.1314093273008482</v>
+        <v>0.1315118090700484</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.693107562787754</v>
+        <v>0.719687</v>
       </c>
       <c r="H8">
-        <v>0.693107562787754</v>
+        <v>2.159061</v>
       </c>
       <c r="I8">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="J8">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N8">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O8">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P8">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q8">
-        <v>41.22974911376279</v>
+        <v>44.09776778302333</v>
       </c>
       <c r="R8">
-        <v>41.22974911376279</v>
+        <v>396.8799100472099</v>
       </c>
       <c r="S8">
-        <v>0.01850406769234102</v>
+        <v>0.01757938228128895</v>
       </c>
       <c r="T8">
-        <v>0.01850406769234102</v>
+        <v>0.01757938228128895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.693107562787754</v>
+        <v>0.719687</v>
       </c>
       <c r="H9">
-        <v>0.693107562787754</v>
+        <v>2.159061</v>
       </c>
       <c r="I9">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="J9">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N9">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O9">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P9">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q9">
-        <v>61.91281602195717</v>
+        <v>64.532245478013</v>
       </c>
       <c r="R9">
-        <v>61.91281602195717</v>
+        <v>580.790209302117</v>
       </c>
       <c r="S9">
-        <v>0.02778670652427833</v>
+        <v>0.02572549745170331</v>
       </c>
       <c r="T9">
-        <v>0.02778670652427833</v>
+        <v>0.02572549745170331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.693107562787754</v>
+        <v>0.719687</v>
       </c>
       <c r="H10">
-        <v>0.693107562787754</v>
+        <v>2.159061</v>
       </c>
       <c r="I10">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="J10">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.6493694562967</v>
+        <v>25.40615466666667</v>
       </c>
       <c r="N10">
-        <v>24.6493694562967</v>
+        <v>76.218464</v>
       </c>
       <c r="O10">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654054</v>
       </c>
       <c r="P10">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654053</v>
       </c>
       <c r="Q10">
-        <v>17.08466438810871</v>
+        <v>18.28447923358933</v>
       </c>
       <c r="R10">
-        <v>17.08466438810871</v>
+        <v>164.560313102304</v>
       </c>
       <c r="S10">
-        <v>0.007667662140417031</v>
+        <v>0.007289027686006809</v>
       </c>
       <c r="T10">
-        <v>0.007667662140417031</v>
+        <v>0.007289027686006808</v>
       </c>
     </row>
   </sheetData>
